--- a/code/outputs/comparison_facts_results.xlsx
+++ b/code/outputs/comparison_facts_results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="24">
   <si>
     <t>y_true</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>Valid value definitions</t>
+  </si>
+  <si>
+    <t>Complex concept structure rules</t>
+  </si>
+  <si>
+    <t>Complex concept cardinality rules</t>
+  </si>
+  <si>
+    <t>Symbolic literal definitions</t>
   </si>
   <si>
     <t>1</t>
@@ -457,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -465,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -489,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -497,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -529,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -569,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -603,130 +612,130 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -736,62 +745,167 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
     </row>
@@ -810,39 +924,39 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -877,7 +991,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -912,7 +1026,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -947,7 +1061,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -982,7 +1096,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1017,7 +1131,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1052,7 +1166,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1087,7 +1201,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1122,7 +1236,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1157,7 +1271,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1205,38 +1319,38 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1</v>
